--- a/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -2255,13 +2255,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23376</v>
+        <v>23378</v>
       </c>
       <c r="D45" t="n">
         <v>3851</v>
       </c>
       <c r="E45" t="n">
-        <v>99229912</v>
+        <v>99234004</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="D47" t="n">
         <v>601</v>
       </c>
       <c r="E47" t="n">
-        <v>31491065</v>
+        <v>31499398</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>60293</v>
+        <v>60294</v>
       </c>
       <c r="D54" t="n">
         <v>11727</v>
       </c>
       <c r="E54" t="n">
-        <v>353613511</v>
+        <v>353615499</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>51958</v>
+        <v>51959</v>
       </c>
       <c r="D61" t="n">
         <v>11676</v>
       </c>
       <c r="E61" t="n">
-        <v>133915470</v>
+        <v>133917851</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409168</v>
+        <v>409173</v>
       </c>
       <c r="D92" t="n">
         <v>70907</v>
       </c>
       <c r="E92" t="n">
-        <v>1595640240</v>
+        <v>1595662657</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94205</v>
+        <v>94212</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>918211956</v>
+        <v>918364469</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50779</v>
+        <v>50780</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>933209330</v>
+        <v>933227656</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="D97" t="n">
         <v>375</v>
       </c>
       <c r="E97" t="n">
-        <v>214211359</v>
+        <v>214282109</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135246</v>
+        <v>135248</v>
       </c>
       <c r="D104" t="n">
         <v>23287</v>
       </c>
       <c r="E104" t="n">
-        <v>272236886</v>
+        <v>272240066</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>80474</v>
+        <v>80475</v>
       </c>
       <c r="D141" t="n">
         <v>15006</v>
       </c>
       <c r="E141" t="n">
-        <v>280718664</v>
+        <v>280728664</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>168975</v>
+        <v>168976</v>
       </c>
       <c r="D142" t="n">
         <v>35054</v>
       </c>
       <c r="E142" t="n">
-        <v>681790340</v>
+        <v>681799746</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>201568</v>
+        <v>201571</v>
       </c>
       <c r="D154" t="n">
         <v>39199</v>
       </c>
       <c r="E154" t="n">
-        <v>786763024</v>
+        <v>786779728</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D182" t="n">
         <v>14</v>
       </c>
       <c r="E182" t="n">
-        <v>11014004</v>
+        <v>11214004</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
